--- a/api/initExcel/config.xlsx
+++ b/api/initExcel/config.xlsx
@@ -42,13 +42,14 @@
     <t>813395</t>
   </si>
   <si>
-    <t>13414672775</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
     <t>13714672774</t>
+  </si>
+  <si>
+    <t>13714672776</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,7 +397,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -434,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
